--- a/Identifier/Old to label/to_label2.xlsx
+++ b/Identifier/Old to label/to_label2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jefva\Documents\Master\Thesis_s2\Code\Identifier\Old to label\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECA65C4C-52F0-47CB-A868-4D7B3FC202FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413A935E-C597-4425-B46F-80D394AF991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -935,16 +935,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="C202" sqref="C202"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -959,7 +959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -976,7 +976,7 @@
         <v>0.4391026496887207</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -993,7 +993,7 @@
         <v>0.43565046787261957</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>0.43185687065124512</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>0.43183666467666632</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>0.42969316244125372</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>0.40505248308181763</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>0.40219730138778692</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>0.39818090200424189</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>0.3820604681968689</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>0.38162356615066528</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>0.375873863697052</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>0.375873863697052</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>0.375873863697052</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>0.375873863697052</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0.375873863697052</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>0.34868782758712769</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>0.34868782758712769</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>0.34868782758712769</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>0.34868782758712769</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>0.3473503589630127</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>0.31448447704315191</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>0.31105536222457891</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>19</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>0.2948380708694458</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>0.29449754953384399</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>0.28727936744689941</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>0.28727936744689941</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>0.2699621319770813</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>0.26357561349868769</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>0.26220244169235229</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>0.26220244169235229</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>24</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>0.26220244169235229</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>24</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>0.26220244169235229</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>25</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>0.26044905185699457</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>26</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>0.25314247608184809</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>26</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>0.25314247608184809</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>0.25314247608184809</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>26</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>0.25314247608184809</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>26</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>0.25314247608184809</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>26</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>0.25314247608184809</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>26</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>0.25314247608184809</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>26</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>0.25314247608184809</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>26</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>0.25314247608184809</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>27</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>0.217890739440918</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>28</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>0.21136713027954099</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>28</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>0.21136713027954099</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>29</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>0.21099841594696039</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>30</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>0.20245194435119629</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>31</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>0.17065978050231931</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>32</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>0.1687617301940918</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>33</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>0.168083131313324</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>34</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>0.16318804025650019</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>35</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>0.16291141510009771</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>36</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>0.16283243894577029</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>37</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>0.15378141403198239</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>38</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>0.15328514575958249</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>39</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>0.1527864336967468</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>40</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>0.14985555410385129</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>41</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>0.14516997337341311</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>42</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>0.1393211483955383</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>43</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>0.13830858469009399</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>44</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>0.13424783945083621</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>45</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>0.13323259353637701</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>46</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>0.13262939453125</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>46</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>0.13262939453125</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>47</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>0.1231752038002014</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="360" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>48</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>0.12281167507171629</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>49</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>0.12124925851821899</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>50</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>0.1112455725669861</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>51</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>0.1092419624328613</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>52</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>0.1026164293289185</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>53</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>0.1025642156600952</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>54</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>9.2759966850280762E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>55</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>8.4951221942901611E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>56</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>8.2502126693725586E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>57</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>8.172231912612915E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>58</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>8.124309778213501E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>59</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>7.842254638671875E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>59</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>7.842254638671875E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>60</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>7.8201055526733398E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>61</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>7.7898323535919189E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>61</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>7.7898323535919189E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>62</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>7.5449943542480469E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>63</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>6.8390071392059326E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>64</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>6.6633522510528564E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>65</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>6.4992547035217285E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>66</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>6.4683377742767334E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>67</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>6.4367175102233887E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>68</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>6.4039707183837891E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>69</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>6.4032554626464844E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>70</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>6.3206613063812256E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>71</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>5.6555032730102539E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>72</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>5.6258022785186768E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>73</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>5.4964661598205573E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>74</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>5.3281128406524658E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>75</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>5.2598297595977783E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>76</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>5.2572965621948242E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>77</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>5.1356375217437737E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>78</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>5.1210641860961907E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>79</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>4.9573719501495361E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>80</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>4.7715306282043457E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>81</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>4.7299802303314209E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>82</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>4.7233700752258301E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>83</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>4.6903669834136963E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>84</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>4.6413838863372803E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>85</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>4.6258330345153809E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>86</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>4.3668806552886963E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>87</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>4.334568977355957E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>88</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>4.1630208492279053E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>89</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>4.1604459285736077E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>90</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>4.0877938270568848E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>91</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>4.0584862232208252E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>92</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>4.0257751941680908E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>93</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>3.685450553894043E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>94</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>3.54728102684021E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>94</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>3.54728102684021E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>95</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>3.1348288059234619E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>96</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>3.032094240188599E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>97</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>2.871859073638916E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>98</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>2.7749300003051761E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>99</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>2.6691854000091549E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>100</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>2.6346743106842041E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>101</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>2.3772478103637699E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>102</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>2.272343635559082E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>103</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>2.2609531879425049E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>104</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>2.245998382568359E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>105</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>2.2342085838317871E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>106</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>2.2175729274749759E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>107</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>2.1566689014434811E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>108</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>2.092385292053223E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>109</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>2.024000883102417E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>110</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>1.82451605796814E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>111</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>1.792609691619873E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>112</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>1.7563104629516602E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>113</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>1.728850603103638E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>114</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>1.6667008399963379E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>115</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>1.6223490238189701E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>116</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>1.6061484813690189E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>117</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>1.6039133071899411E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>118</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>1.5563130378723139E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>118</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>1.5563130378723139E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>119</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>1.5318393707275391E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>120</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>1.5316903591156009E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>121</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>1.5116751194000241E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>122</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>1.490914821624756E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>123</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>1.48472785949707E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>124</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>1.454693078994751E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>125</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>1.4457821846008301E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>126</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>1.4413595199584959E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>127</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>1.429879665374756E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>128</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>1.4119803905487061E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>129</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>1.394909620285034E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>130</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>1.382344961166382E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>131</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>1.336950063705444E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>132</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>1.3197004795074459E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>133</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>1.255625486373901E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>133</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>1.255625486373901E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>133</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>1.255625486373901E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>134</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>1.167547702789307E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>135</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>1.151078939437866E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>136</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>1.1024832725524901E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>137</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>1.1008501052856451E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>138</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>1.046264171600342E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>138</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>1.046264171600342E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>139</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>1.020985841751099E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>140</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>1.020026206970215E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>141</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>1.018244028091431E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>142</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>1.017636060714722E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>142</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>1.017636060714722E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>142</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>1.017636060714722E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>143</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>9.9776387214660645E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>144</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>9.8552703857421875E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>145</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>9.4227790832519531E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>146</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>9.3539953231811523E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>147</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>8.99505615234375E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>148</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>8.9064240455627441E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>149</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>8.8491439819335938E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>150</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>8.7090730667114258E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>151</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>8.5542201995849609E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>152</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>8.1858634948730469E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>153</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>8.1636309623718262E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>154</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>8.0892443656921387E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>155</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>7.7210664749145508E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>155</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>7.7210664749145508E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>156</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>7.7003836631774902E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>157</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>7.6568722724914551E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>158</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>7.6492428779602051E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>159</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>7.6484084129333496E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>160</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>7.6447725296020508E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>160</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>7.6447725296020508E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>161</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>7.5090527534484863E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>162</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>7.3921680450439453E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>163</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>7.2227716445922852E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>164</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>7.1970820426940918E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>164</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>7.1970820426940918E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>165</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>7.1185827255249023E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>165</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>7.1185827255249023E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>166</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>6.9222450256347656E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>167</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>6.777644157409668E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>168</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>6.7743659019470206E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>169</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>6.7562460899353027E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C202" cm="1">
         <f t="array" ref="C202">SUMPRODUCT(--(B2:B201=C2:C201))</f>
         <v>131</v>
